--- a/out/CE/FigA_11.xlsx
+++ b/out/CE/FigA_11.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249D8740-DB2D-4DB4-9CEC-FB823CA70FAD}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.86738000000000004</v>
+        <v>0.87214000000000003</v>
       </c>
       <c r="B1">
-        <v>0.83962000000000003</v>
+        <v>0.87548999999999999</v>
       </c>
       <c r="C1">
-        <v>0.85350000000000004</v>
+        <v>0.85911000000000004</v>
+      </c>
+      <c r="D1">
+        <v>0.86597999999999997</v>
+      </c>
+      <c r="E1">
+        <v>0.85594999999999999</v>
+      </c>
+      <c r="F1">
+        <v>0.88197999999999999</v>
+      </c>
+      <c r="G1">
+        <v>0.85243999999999998</v>
+      </c>
+      <c r="H1">
+        <v>0.84643999999999997</v>
+      </c>
+      <c r="I1">
+        <v>0.84623000000000004</v>
+      </c>
+      <c r="J1">
+        <v>0.85297999999999996</v>
+      </c>
+      <c r="K1">
+        <v>0.86333000000000004</v>
+      </c>
+      <c r="L1">
+        <v>0.85731000000000002</v>
+      </c>
+      <c r="M1">
+        <v>0.84836999999999996</v>
+      </c>
+      <c r="N1">
+        <v>0.85028000000000004</v>
+      </c>
+      <c r="O1">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="P1">
+        <v>0.87056</v>
+      </c>
+      <c r="Q1">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="R1">
+        <v>0.85990999999999995</v>
+      </c>
+      <c r="S1">
+        <v>0.86846000000000001</v>
+      </c>
+      <c r="T1">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="U1">
+        <v>0.84184000000000003</v>
+      </c>
+      <c r="V1">
+        <v>0.87868999999999997</v>
+      </c>
+      <c r="W1">
+        <v>0.88075000000000003</v>
+      </c>
+      <c r="X1">
+        <v>0.86712</v>
+      </c>
+      <c r="Y1">
+        <v>0.85021999999999998</v>
+      </c>
+      <c r="Z1">
+        <v>0.86858000000000002</v>
+      </c>
+      <c r="AA1">
+        <v>0.86099000000000003</v>
+      </c>
+      <c r="AB1">
+        <v>0.86531999999999998</v>
+      </c>
+      <c r="AC1">
+        <v>0.83567000000000002</v>
+      </c>
+      <c r="AD1">
+        <v>0.83162999999999998</v>
+      </c>
+      <c r="AE1">
+        <v>0.85163999999999995</v>
+      </c>
+      <c r="AF1">
+        <v>0.85502999999999996</v>
+      </c>
+      <c r="AG1">
+        <v>0.82745000000000002</v>
+      </c>
+      <c r="AH1">
+        <v>0.85485999999999995</v>
+      </c>
+      <c r="AI1">
+        <v>0.85314000000000001</v>
+      </c>
+      <c r="AJ1">
+        <v>0.83343</v>
+      </c>
+      <c r="AK1">
+        <v>0.88227</v>
+      </c>
+      <c r="AL1">
+        <v>0.84491000000000005</v>
+      </c>
+      <c r="AM1">
+        <v>0.86889000000000005</v>
+      </c>
+      <c r="AN1">
+        <v>0.86448000000000003</v>
+      </c>
+      <c r="AO1">
+        <v>0.84504000000000001</v>
+      </c>
+      <c r="AP1">
+        <v>0.88349</v>
+      </c>
+      <c r="AQ1">
+        <v>0.85877999999999999</v>
+      </c>
+      <c r="AR1">
+        <v>0.85167999999999999</v>
+      </c>
+      <c r="AS1">
+        <v>0.85358999999999996</v>
+      </c>
+      <c r="AT1">
+        <v>0.85097999999999996</v>
+      </c>
+      <c r="AU1">
+        <v>0.84791000000000005</v>
+      </c>
+      <c r="AV1">
+        <v>0.85914999999999997</v>
+      </c>
+      <c r="AW1">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="AX1">
+        <v>0.86492000000000002</v>
+      </c>
+      <c r="AY1">
+        <v>0.83135999999999999</v>
+      </c>
+      <c r="AZ1">
+        <v>0.86885999999999997</v>
+      </c>
+      <c r="BA1">
+        <v>0.81183000000000005</v>
+      </c>
+      <c r="BB1">
+        <v>0.86233000000000004</v>
+      </c>
+      <c r="BC1">
+        <v>0.85465999999999998</v>
+      </c>
+      <c r="BD1">
+        <v>0.873</v>
+      </c>
+      <c r="BE1">
+        <v>0.86304000000000003</v>
+      </c>
+      <c r="BF1">
+        <v>0.86504999999999999</v>
+      </c>
+      <c r="BG1">
+        <v>0.87034999999999996</v>
+      </c>
+      <c r="BH1">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="BI1">
+        <v>0.84838000000000002</v>
+      </c>
+      <c r="BJ1">
+        <v>0.84782000000000002</v>
+      </c>
+      <c r="BK1">
+        <v>0.84794000000000003</v>
+      </c>
+      <c r="BL1">
+        <v>0.85512999999999995</v>
+      </c>
+      <c r="BM1">
+        <v>0.84070999999999996</v>
+      </c>
+      <c r="BN1">
+        <v>0.84901000000000004</v>
+      </c>
+      <c r="BO1">
+        <v>0.85038000000000002</v>
+      </c>
+      <c r="BP1">
+        <v>0.84575999999999996</v>
+      </c>
+      <c r="BQ1">
+        <v>0.85343999999999998</v>
+      </c>
+      <c r="BR1">
+        <v>0.84733999999999998</v>
+      </c>
+      <c r="BS1">
+        <v>0.86202000000000001</v>
+      </c>
+      <c r="BT1">
+        <v>0.81406999999999996</v>
+      </c>
+      <c r="BU1">
+        <v>0.83159000000000005</v>
+      </c>
+      <c r="BV1">
+        <v>0.83816000000000002</v>
+      </c>
+      <c r="BW1">
+        <v>0.86051</v>
+      </c>
+      <c r="BX1">
+        <v>0.86906000000000005</v>
+      </c>
+      <c r="BY1">
+        <v>0.87609000000000004</v>
+      </c>
+      <c r="BZ1">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="CA1">
+        <v>0.86355000000000004</v>
+      </c>
+      <c r="CB1">
+        <v>0.84509000000000001</v>
+      </c>
+      <c r="CC1">
+        <v>0.86348000000000003</v>
+      </c>
+      <c r="CD1">
+        <v>0.86851999999999996</v>
+      </c>
+      <c r="CE1">
+        <v>0.84484999999999999</v>
+      </c>
+      <c r="CF1">
+        <v>0.83233999999999997</v>
+      </c>
+      <c r="CG1">
+        <v>0.87546000000000002</v>
+      </c>
+      <c r="CH1">
+        <v>0.89117000000000002</v>
+      </c>
+      <c r="CI1">
+        <v>0.85448999999999997</v>
+      </c>
+      <c r="CJ1">
+        <v>0.85731000000000002</v>
+      </c>
+      <c r="CK1">
+        <v>0.87848999999999999</v>
+      </c>
+      <c r="CL1">
+        <v>0.84813000000000005</v>
+      </c>
+      <c r="CM1">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="CN1">
+        <v>0.83587</v>
+      </c>
+      <c r="CO1">
+        <v>0.87585999999999997</v>
+      </c>
+      <c r="CP1">
+        <v>0.83255999999999997</v>
+      </c>
+      <c r="CQ1">
+        <v>0.86136999999999997</v>
+      </c>
+      <c r="CR1">
+        <v>0.85282000000000002</v>
+      </c>
+      <c r="CS1">
+        <v>0.84655000000000002</v>
+      </c>
+      <c r="CT1">
+        <v>0.86202999999999996</v>
+      </c>
+      <c r="CU1">
+        <v>0.84284999999999999</v>
+      </c>
+      <c r="CV1">
+        <v>0.87234999999999996</v>
+      </c>
+      <c r="CW1">
+        <v>0.85647839999999986</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.86909999999999998</v>
+        <v>0.86517999999999995</v>
       </c>
       <c r="B2">
-        <v>0.86814000000000002</v>
+        <v>0.86822999999999995</v>
       </c>
       <c r="C2">
-        <v>0.86861999999999995</v>
+        <v>0.87809999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.85141999999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.84943999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.87475999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.85731000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.85455999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.84182999999999997</v>
+      </c>
+      <c r="J2">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.86133000000000004</v>
+      </c>
+      <c r="L2">
+        <v>0.87651000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.85638000000000003</v>
+      </c>
+      <c r="N2">
+        <v>0.87263999999999997</v>
+      </c>
+      <c r="O2">
+        <v>0.87712000000000001</v>
+      </c>
+      <c r="P2">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.85762000000000005</v>
+      </c>
+      <c r="R2">
+        <v>0.85951999999999995</v>
+      </c>
+      <c r="S2">
+        <v>0.87717999999999996</v>
+      </c>
+      <c r="T2">
+        <v>0.85338000000000003</v>
+      </c>
+      <c r="U2">
+        <v>0.86114999999999997</v>
+      </c>
+      <c r="V2">
+        <v>0.85814000000000001</v>
+      </c>
+      <c r="W2">
+        <v>0.84274000000000004</v>
+      </c>
+      <c r="X2">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="Y2">
+        <v>0.85626999999999998</v>
+      </c>
+      <c r="Z2">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="AA2">
+        <v>0.88353999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>0.83172999999999997</v>
+      </c>
+      <c r="AC2">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AD2">
+        <v>0.84033000000000002</v>
+      </c>
+      <c r="AE2">
+        <v>0.83942000000000005</v>
+      </c>
+      <c r="AF2">
+        <v>0.85326999999999997</v>
+      </c>
+      <c r="AG2">
+        <v>0.84701000000000004</v>
+      </c>
+      <c r="AH2">
+        <v>0.85702999999999996</v>
+      </c>
+      <c r="AI2">
+        <v>0.81779000000000002</v>
+      </c>
+      <c r="AJ2">
+        <v>0.87221000000000004</v>
+      </c>
+      <c r="AK2">
+        <v>0.84003000000000005</v>
+      </c>
+      <c r="AL2">
+        <v>0.86131000000000002</v>
+      </c>
+      <c r="AM2">
+        <v>0.88214000000000004</v>
+      </c>
+      <c r="AN2">
+        <v>0.85582000000000003</v>
+      </c>
+      <c r="AO2">
+        <v>0.84375</v>
+      </c>
+      <c r="AP2">
+        <v>0.84572999999999998</v>
+      </c>
+      <c r="AQ2">
+        <v>0.85528000000000004</v>
+      </c>
+      <c r="AR2">
+        <v>0.84087000000000001</v>
+      </c>
+      <c r="AS2">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="AT2">
+        <v>0.87388999999999994</v>
+      </c>
+      <c r="AU2">
+        <v>0.86170000000000002</v>
+      </c>
+      <c r="AV2">
+        <v>0.86109000000000002</v>
+      </c>
+      <c r="AW2">
+        <v>0.86724000000000001</v>
+      </c>
+      <c r="AX2">
+        <v>0.83284999999999998</v>
+      </c>
+      <c r="AY2">
+        <v>0.86102999999999996</v>
+      </c>
+      <c r="AZ2">
+        <v>0.86202999999999996</v>
+      </c>
+      <c r="BA2">
+        <v>0.86192000000000002</v>
+      </c>
+      <c r="BB2">
+        <v>0.86365000000000003</v>
+      </c>
+      <c r="BC2">
+        <v>0.87314999999999998</v>
+      </c>
+      <c r="BD2">
+        <v>0.85365999999999997</v>
+      </c>
+      <c r="BE2">
+        <v>0.82825000000000004</v>
+      </c>
+      <c r="BF2">
+        <v>0.87400999999999995</v>
+      </c>
+      <c r="BG2">
+        <v>0.87211000000000005</v>
+      </c>
+      <c r="BH2">
+        <v>0.85687000000000002</v>
+      </c>
+      <c r="BI2">
+        <v>0.86075999999999997</v>
+      </c>
+      <c r="BJ2">
+        <v>0.86207999999999996</v>
+      </c>
+      <c r="BK2">
+        <v>0.86594000000000004</v>
+      </c>
+      <c r="BL2">
+        <v>0.87297000000000002</v>
+      </c>
+      <c r="BM2">
+        <v>0.87327999999999995</v>
+      </c>
+      <c r="BN2">
+        <v>0.86967000000000005</v>
+      </c>
+      <c r="BO2">
+        <v>0.84377000000000002</v>
+      </c>
+      <c r="BP2">
+        <v>0.88193999999999995</v>
+      </c>
+      <c r="BQ2">
+        <v>0.86097000000000001</v>
+      </c>
+      <c r="BR2">
+        <v>0.85326999999999997</v>
+      </c>
+      <c r="BS2">
+        <v>0.85838000000000003</v>
+      </c>
+      <c r="BT2">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="BU2">
+        <v>0.87531999999999999</v>
+      </c>
+      <c r="BV2">
+        <v>0.85738000000000003</v>
+      </c>
+      <c r="BW2">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="BX2">
+        <v>0.84389000000000003</v>
+      </c>
+      <c r="BY2">
+        <v>0.85785</v>
+      </c>
+      <c r="BZ2">
+        <v>0.83745000000000003</v>
+      </c>
+      <c r="CA2">
+        <v>0.84328999999999998</v>
+      </c>
+      <c r="CB2">
+        <v>0.84453</v>
+      </c>
+      <c r="CC2">
+        <v>0.88314999999999999</v>
+      </c>
+      <c r="CD2">
+        <v>0.85892999999999997</v>
+      </c>
+      <c r="CE2">
+        <v>0.86007999999999996</v>
+      </c>
+      <c r="CF2">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="CG2">
+        <v>0.86338999999999999</v>
+      </c>
+      <c r="CH2">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="CI2">
+        <v>0.86402000000000001</v>
+      </c>
+      <c r="CJ2">
+        <v>0.86553000000000002</v>
+      </c>
+      <c r="CK2">
+        <v>0.86009000000000002</v>
+      </c>
+      <c r="CL2">
+        <v>0.86626000000000003</v>
+      </c>
+      <c r="CM2">
+        <v>0.85762000000000005</v>
+      </c>
+      <c r="CN2">
+        <v>0.85977000000000003</v>
+      </c>
+      <c r="CO2">
+        <v>0.84196000000000004</v>
+      </c>
+      <c r="CP2">
+        <v>0.87309000000000003</v>
+      </c>
+      <c r="CQ2">
+        <v>0.87636000000000003</v>
+      </c>
+      <c r="CR2">
+        <v>0.84972000000000003</v>
+      </c>
+      <c r="CS2">
+        <v>0.85416999999999998</v>
+      </c>
+      <c r="CT2">
+        <v>0.84402999999999995</v>
+      </c>
+      <c r="CU2">
+        <v>0.84128000000000003</v>
+      </c>
+      <c r="CV2">
+        <v>0.88646999999999998</v>
+      </c>
+      <c r="CW2">
+        <v>0.85810280000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.85204000000000002</v>
+        <v>0.87536000000000003</v>
       </c>
       <c r="B3">
-        <v>0.86062000000000005</v>
+        <v>0.86778</v>
       </c>
       <c r="C3">
-        <v>0.85633000000000004</v>
+        <v>0.86807999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.86822999999999995</v>
+      </c>
+      <c r="E3">
+        <v>0.84038000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.84257000000000004</v>
+      </c>
+      <c r="G3">
+        <v>0.86292999999999997</v>
+      </c>
+      <c r="H3">
+        <v>0.83545999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.83835000000000004</v>
+      </c>
+      <c r="J3">
+        <v>0.86772000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.85019</v>
+      </c>
+      <c r="M3">
+        <v>0.86214999999999997</v>
+      </c>
+      <c r="N3">
+        <v>0.85855000000000004</v>
+      </c>
+      <c r="O3">
+        <v>0.86455000000000004</v>
+      </c>
+      <c r="P3">
+        <v>0.84958</v>
+      </c>
+      <c r="Q3">
+        <v>0.87255000000000005</v>
+      </c>
+      <c r="R3">
+        <v>0.84648999999999996</v>
+      </c>
+      <c r="S3">
+        <v>0.84502999999999995</v>
+      </c>
+      <c r="T3">
+        <v>0.84663999999999995</v>
+      </c>
+      <c r="U3">
+        <v>0.83491000000000004</v>
+      </c>
+      <c r="V3">
+        <v>0.84938999999999998</v>
+      </c>
+      <c r="W3">
+        <v>0.86875999999999998</v>
+      </c>
+      <c r="X3">
+        <v>0.86516000000000004</v>
+      </c>
+      <c r="Y3">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="Z3">
+        <v>0.88127999999999995</v>
+      </c>
+      <c r="AA3">
+        <v>0.85114999999999996</v>
+      </c>
+      <c r="AB3">
+        <v>0.86216999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="AD3">
+        <v>0.85455999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="AF3">
+        <v>0.86295999999999995</v>
+      </c>
+      <c r="AG3">
+        <v>0.87729000000000001</v>
+      </c>
+      <c r="AH3">
+        <v>0.86268</v>
+      </c>
+      <c r="AI3">
+        <v>0.86665999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>0.82028999999999996</v>
+      </c>
+      <c r="AK3">
+        <v>0.87373999999999996</v>
+      </c>
+      <c r="AL3">
+        <v>0.84911999999999999</v>
+      </c>
+      <c r="AM3">
+        <v>0.87219000000000002</v>
+      </c>
+      <c r="AN3">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="AO3">
+        <v>0.84353999999999996</v>
+      </c>
+      <c r="AP3">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="AQ3">
+        <v>0.85987999999999998</v>
+      </c>
+      <c r="AR3">
+        <v>0.85402999999999996</v>
+      </c>
+      <c r="AS3">
+        <v>0.84394999999999998</v>
+      </c>
+      <c r="AT3">
+        <v>0.85653999999999997</v>
+      </c>
+      <c r="AU3">
+        <v>0.87344999999999995</v>
+      </c>
+      <c r="AV3">
+        <v>0.87263999999999997</v>
+      </c>
+      <c r="AW3">
+        <v>0.82821999999999996</v>
+      </c>
+      <c r="AX3">
+        <v>0.85828000000000004</v>
+      </c>
+      <c r="AY3">
+        <v>0.85174000000000005</v>
+      </c>
+      <c r="AZ3">
+        <v>0.88246000000000002</v>
+      </c>
+      <c r="BA3">
+        <v>0.84421000000000002</v>
+      </c>
+      <c r="BB3">
+        <v>0.86036999999999997</v>
+      </c>
+      <c r="BC3">
+        <v>0.85370999999999997</v>
+      </c>
+      <c r="BD3">
+        <v>0.84845999999999999</v>
+      </c>
+      <c r="BE3">
+        <v>0.84641</v>
+      </c>
+      <c r="BF3">
+        <v>0.85821999999999998</v>
+      </c>
+      <c r="BG3">
+        <v>0.84065000000000001</v>
+      </c>
+      <c r="BH3">
+        <v>0.86336999999999997</v>
+      </c>
+      <c r="BI3">
+        <v>0.84977999999999998</v>
+      </c>
+      <c r="BJ3">
+        <v>0.85</v>
+      </c>
+      <c r="BK3">
+        <v>0.85450999999999999</v>
+      </c>
+      <c r="BL3">
+        <v>0.83845000000000003</v>
+      </c>
+      <c r="BM3">
+        <v>0.83847000000000005</v>
+      </c>
+      <c r="BN3">
+        <v>0.83369000000000004</v>
+      </c>
+      <c r="BO3">
+        <v>0.86726000000000003</v>
+      </c>
+      <c r="BP3">
+        <v>0.88026000000000004</v>
+      </c>
+      <c r="BQ3">
+        <v>0.86709000000000003</v>
+      </c>
+      <c r="BR3">
+        <v>0.85936000000000001</v>
+      </c>
+      <c r="BS3">
+        <v>0.83177999999999996</v>
+      </c>
+      <c r="BT3">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="BU3">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="BV3">
+        <v>0.85458000000000001</v>
+      </c>
+      <c r="BW3">
+        <v>0.86665000000000003</v>
+      </c>
+      <c r="BX3">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="BY3">
+        <v>0.84423999999999999</v>
+      </c>
+      <c r="BZ3">
+        <v>0.88170999999999999</v>
+      </c>
+      <c r="CA3">
+        <v>0.86043000000000003</v>
+      </c>
+      <c r="CB3">
+        <v>0.86302999999999996</v>
+      </c>
+      <c r="CC3">
+        <v>0.84313000000000005</v>
+      </c>
+      <c r="CD3">
+        <v>0.86004999999999998</v>
+      </c>
+      <c r="CE3">
+        <v>0.84819</v>
+      </c>
+      <c r="CF3">
+        <v>0.87995000000000001</v>
+      </c>
+      <c r="CG3">
+        <v>0.84231999999999996</v>
+      </c>
+      <c r="CH3">
+        <v>0.85514999999999997</v>
+      </c>
+      <c r="CI3">
+        <v>0.85846</v>
+      </c>
+      <c r="CJ3">
+        <v>0.85263</v>
+      </c>
+      <c r="CK3">
+        <v>0.86082999999999998</v>
+      </c>
+      <c r="CL3">
+        <v>0.82633000000000001</v>
+      </c>
+      <c r="CM3">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="CN3">
+        <v>0.86758000000000002</v>
+      </c>
+      <c r="CO3">
+        <v>0.85641999999999996</v>
+      </c>
+      <c r="CP3">
+        <v>0.85353000000000001</v>
+      </c>
+      <c r="CQ3">
+        <v>0.85526000000000002</v>
+      </c>
+      <c r="CR3">
+        <v>0.87956000000000001</v>
+      </c>
+      <c r="CS3">
+        <v>0.86934</v>
+      </c>
+      <c r="CT3">
+        <v>0.83672000000000002</v>
+      </c>
+      <c r="CU3">
+        <v>0.83459000000000005</v>
+      </c>
+      <c r="CV3">
+        <v>0.86192000000000002</v>
+      </c>
+      <c r="CW3">
+        <v>0.8569888</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.82774000000000003</v>
+        <v>0.88193999999999995</v>
       </c>
       <c r="B4">
-        <v>0.86755000000000004</v>
+        <v>0.87702999999999998</v>
       </c>
       <c r="C4">
-        <v>0.84764499999999998</v>
+        <v>0.86104999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.86085</v>
+      </c>
+      <c r="E4">
+        <v>0.85255000000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.85795999999999994</v>
+      </c>
+      <c r="G4">
+        <v>0.84880999999999995</v>
+      </c>
+      <c r="H4">
+        <v>0.84402999999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="J4">
+        <v>0.83842000000000005</v>
+      </c>
+      <c r="K4">
+        <v>0.84304999999999997</v>
+      </c>
+      <c r="L4">
+        <v>0.85548000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.86077999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.85331000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.85784000000000005</v>
+      </c>
+      <c r="Q4">
+        <v>0.87702999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.86731999999999998</v>
+      </c>
+      <c r="S4">
+        <v>0.86277999999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.87017999999999995</v>
+      </c>
+      <c r="U4">
+        <v>0.84767999999999999</v>
+      </c>
+      <c r="V4">
+        <v>0.83287</v>
+      </c>
+      <c r="W4">
+        <v>0.87568000000000001</v>
+      </c>
+      <c r="X4">
+        <v>0.87343000000000004</v>
+      </c>
+      <c r="Y4">
+        <v>0.83672000000000002</v>
+      </c>
+      <c r="Z4">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="AA4">
+        <v>0.85650999999999999</v>
+      </c>
+      <c r="AB4">
+        <v>0.84692999999999996</v>
+      </c>
+      <c r="AC4">
+        <v>0.86004000000000003</v>
+      </c>
+      <c r="AD4">
+        <v>0.84857000000000005</v>
+      </c>
+      <c r="AE4">
+        <v>0.87070999999999998</v>
+      </c>
+      <c r="AF4">
+        <v>0.85182000000000002</v>
+      </c>
+      <c r="AG4">
+        <v>0.88249</v>
+      </c>
+      <c r="AH4">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="AI4">
+        <v>0.86065000000000003</v>
+      </c>
+      <c r="AJ4">
+        <v>0.85685</v>
+      </c>
+      <c r="AK4">
+        <v>0.87163999999999997</v>
+      </c>
+      <c r="AL4">
+        <v>0.87243000000000004</v>
+      </c>
+      <c r="AM4">
+        <v>0.86789000000000005</v>
+      </c>
+      <c r="AN4">
+        <v>0.86306000000000005</v>
+      </c>
+      <c r="AO4">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="AP4">
+        <v>0.85609000000000002</v>
+      </c>
+      <c r="AQ4">
+        <v>0.85668999999999995</v>
+      </c>
+      <c r="AR4">
+        <v>0.88834000000000002</v>
+      </c>
+      <c r="AS4">
+        <v>0.86243999999999998</v>
+      </c>
+      <c r="AT4">
+        <v>0.84333999999999998</v>
+      </c>
+      <c r="AU4">
+        <v>0.83353999999999995</v>
+      </c>
+      <c r="AV4">
+        <v>0.85814000000000001</v>
+      </c>
+      <c r="AW4">
+        <v>0.84423999999999999</v>
+      </c>
+      <c r="AX4">
+        <v>0.82557000000000003</v>
+      </c>
+      <c r="AY4">
+        <v>0.85365999999999997</v>
+      </c>
+      <c r="AZ4">
+        <v>0.87524999999999997</v>
+      </c>
+      <c r="BA4">
+        <v>0.85921999999999998</v>
+      </c>
+      <c r="BB4">
+        <v>0.85914000000000001</v>
+      </c>
+      <c r="BC4">
+        <v>0.87302999999999997</v>
+      </c>
+      <c r="BD4">
+        <v>0.84424999999999994</v>
+      </c>
+      <c r="BE4">
+        <v>0.86046999999999996</v>
+      </c>
+      <c r="BF4">
+        <v>0.83577000000000001</v>
+      </c>
+      <c r="BG4">
+        <v>0.88224999999999998</v>
+      </c>
+      <c r="BH4">
+        <v>0.86067000000000005</v>
+      </c>
+      <c r="BI4">
+        <v>0.85306000000000004</v>
+      </c>
+      <c r="BJ4">
+        <v>0.87139</v>
+      </c>
+      <c r="BK4">
+        <v>0.87748999999999999</v>
+      </c>
+      <c r="BL4">
+        <v>0.85609000000000002</v>
+      </c>
+      <c r="BM4">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="BN4">
+        <v>0.83721000000000001</v>
+      </c>
+      <c r="BO4">
+        <v>0.88431000000000004</v>
+      </c>
+      <c r="BP4">
+        <v>0.86097999999999997</v>
+      </c>
+      <c r="BQ4">
+        <v>0.83670999999999995</v>
+      </c>
+      <c r="BR4">
+        <v>0.83762000000000003</v>
+      </c>
+      <c r="BS4">
+        <v>0.86387999999999998</v>
+      </c>
+      <c r="BT4">
+        <v>0.84702999999999995</v>
+      </c>
+      <c r="BU4">
+        <v>0.87958000000000003</v>
+      </c>
+      <c r="BV4">
+        <v>0.83867999999999998</v>
+      </c>
+      <c r="BW4">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="BX4">
+        <v>0.85687000000000002</v>
+      </c>
+      <c r="BY4">
+        <v>0.86231000000000002</v>
+      </c>
+      <c r="BZ4">
+        <v>0.87868999999999997</v>
+      </c>
+      <c r="CA4">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="CB4">
+        <v>0.82928000000000002</v>
+      </c>
+      <c r="CC4">
+        <v>0.88080999999999998</v>
+      </c>
+      <c r="CD4">
+        <v>0.84594000000000003</v>
+      </c>
+      <c r="CE4">
+        <v>0.88388999999999995</v>
+      </c>
+      <c r="CF4">
+        <v>0.85716000000000003</v>
+      </c>
+      <c r="CG4">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="CH4">
+        <v>0.86243999999999998</v>
+      </c>
+      <c r="CI4">
+        <v>0.84989000000000003</v>
+      </c>
+      <c r="CJ4">
+        <v>0.84755000000000003</v>
+      </c>
+      <c r="CK4">
+        <v>0.87819000000000003</v>
+      </c>
+      <c r="CL4">
+        <v>0.85636999999999996</v>
+      </c>
+      <c r="CM4">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="CN4">
+        <v>0.87577000000000005</v>
+      </c>
+      <c r="CO4">
+        <v>0.86741999999999997</v>
+      </c>
+      <c r="CP4">
+        <v>0.86212</v>
+      </c>
+      <c r="CQ4">
+        <v>0.85282000000000002</v>
+      </c>
+      <c r="CR4">
+        <v>0.88512000000000002</v>
+      </c>
+      <c r="CS4">
+        <v>0.84357000000000004</v>
+      </c>
+      <c r="CT4">
+        <v>0.8478</v>
+      </c>
+      <c r="CU4">
+        <v>0.86255000000000004</v>
+      </c>
+      <c r="CV4">
+        <v>0.84448999999999996</v>
+      </c>
+      <c r="CW4">
+        <v>0.85843859999999961</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.87180999999999997</v>
+        <v>0.86268</v>
       </c>
       <c r="B5">
-        <v>0.87770000000000004</v>
+        <v>0.87778</v>
       </c>
       <c r="C5">
-        <v>0.87475499999999995</v>
+        <v>0.84484000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.85101000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.83192999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.85407999999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.88575999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.87155000000000005</v>
+      </c>
+      <c r="I5">
+        <v>0.89376999999999995</v>
+      </c>
+      <c r="J5">
+        <v>0.84086000000000005</v>
+      </c>
+      <c r="K5">
+        <v>0.85757000000000005</v>
+      </c>
+      <c r="L5">
+        <v>0.85443999999999998</v>
+      </c>
+      <c r="M5">
+        <v>0.82733000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.86497999999999997</v>
+      </c>
+      <c r="O5">
+        <v>0.83560999999999996</v>
+      </c>
+      <c r="P5">
+        <v>0.84438999999999997</v>
+      </c>
+      <c r="Q5">
+        <v>0.86253999999999997</v>
+      </c>
+      <c r="R5">
+        <v>0.87014999999999998</v>
+      </c>
+      <c r="S5">
+        <v>0.86606000000000005</v>
+      </c>
+      <c r="T5">
+        <v>0.86717</v>
+      </c>
+      <c r="U5">
+        <v>0.84558999999999995</v>
+      </c>
+      <c r="V5">
+        <v>0.85307999999999995</v>
+      </c>
+      <c r="W5">
+        <v>0.87851999999999997</v>
+      </c>
+      <c r="X5">
+        <v>0.85838999999999999</v>
+      </c>
+      <c r="Y5">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="Z5">
+        <v>0.86073</v>
+      </c>
+      <c r="AA5">
+        <v>0.85636999999999996</v>
+      </c>
+      <c r="AB5">
+        <v>0.86287999999999998</v>
+      </c>
+      <c r="AC5">
+        <v>0.87019000000000002</v>
+      </c>
+      <c r="AD5">
+        <v>0.86041000000000001</v>
+      </c>
+      <c r="AE5">
+        <v>0.84445999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.86038999999999999</v>
+      </c>
+      <c r="AG5">
+        <v>0.84128000000000003</v>
+      </c>
+      <c r="AH5">
+        <v>0.85428000000000004</v>
+      </c>
+      <c r="AI5">
+        <v>0.83323000000000003</v>
+      </c>
+      <c r="AJ5">
+        <v>0.84982000000000002</v>
+      </c>
+      <c r="AK5">
+        <v>0.86484000000000005</v>
+      </c>
+      <c r="AL5">
+        <v>0.86463999999999996</v>
+      </c>
+      <c r="AM5">
+        <v>0.84892999999999996</v>
+      </c>
+      <c r="AN5">
+        <v>0.83364000000000005</v>
+      </c>
+      <c r="AO5">
+        <v>0.85497000000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.85924999999999996</v>
+      </c>
+      <c r="AQ5">
+        <v>0.86707999999999996</v>
+      </c>
+      <c r="AR5">
+        <v>0.85848999999999998</v>
+      </c>
+      <c r="AS5">
+        <v>0.86004999999999998</v>
+      </c>
+      <c r="AT5">
+        <v>0.86597000000000002</v>
+      </c>
+      <c r="AU5">
+        <v>0.88102999999999998</v>
+      </c>
+      <c r="AV5">
+        <v>0.86946000000000001</v>
+      </c>
+      <c r="AW5">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="AX5">
+        <v>0.85041</v>
+      </c>
+      <c r="AY5">
+        <v>0.85496000000000005</v>
+      </c>
+      <c r="AZ5">
+        <v>0.87117999999999995</v>
+      </c>
+      <c r="BA5">
+        <v>0.86119000000000001</v>
+      </c>
+      <c r="BB5">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="BC5">
+        <v>0.83592999999999995</v>
+      </c>
+      <c r="BD5">
+        <v>0.83964000000000005</v>
+      </c>
+      <c r="BE5">
+        <v>0.83115000000000006</v>
+      </c>
+      <c r="BF5">
+        <v>0.83189000000000002</v>
+      </c>
+      <c r="BG5">
+        <v>0.86409000000000002</v>
+      </c>
+      <c r="BH5">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="BI5">
+        <v>0.85790999999999995</v>
+      </c>
+      <c r="BJ5">
+        <v>0.82867999999999997</v>
+      </c>
+      <c r="BK5">
+        <v>0.86675999999999997</v>
+      </c>
+      <c r="BL5">
+        <v>0.85672000000000004</v>
+      </c>
+      <c r="BM5">
+        <v>0.85074000000000005</v>
+      </c>
+      <c r="BN5">
+        <v>0.84772000000000003</v>
+      </c>
+      <c r="BO5">
+        <v>0.85718000000000005</v>
+      </c>
+      <c r="BP5">
+        <v>0.86958000000000002</v>
+      </c>
+      <c r="BQ5">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="BR5">
+        <v>0.86038999999999999</v>
+      </c>
+      <c r="BS5">
+        <v>0.83160999999999996</v>
+      </c>
+      <c r="BT5">
+        <v>0.85587999999999997</v>
+      </c>
+      <c r="BU5">
+        <v>0.83479000000000003</v>
+      </c>
+      <c r="BV5">
+        <v>0.83853999999999995</v>
+      </c>
+      <c r="BW5">
+        <v>0.86197000000000001</v>
+      </c>
+      <c r="BX5">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="BY5">
+        <v>0.86221000000000003</v>
+      </c>
+      <c r="BZ5">
+        <v>0.85829</v>
+      </c>
+      <c r="CA5">
+        <v>0.82921</v>
+      </c>
+      <c r="CB5">
+        <v>0.86282000000000003</v>
+      </c>
+      <c r="CC5">
+        <v>0.86304000000000003</v>
+      </c>
+      <c r="CD5">
+        <v>0.8407</v>
+      </c>
+      <c r="CE5">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="CF5">
+        <v>0.86963000000000001</v>
+      </c>
+      <c r="CG5">
+        <v>0.84536999999999995</v>
+      </c>
+      <c r="CH5">
+        <v>0.83994999999999997</v>
+      </c>
+      <c r="CI5">
+        <v>0.85221000000000002</v>
+      </c>
+      <c r="CJ5">
+        <v>0.82904</v>
+      </c>
+      <c r="CK5">
+        <v>0.85304000000000002</v>
+      </c>
+      <c r="CL5">
+        <v>0.83991000000000005</v>
+      </c>
+      <c r="CM5">
+        <v>0.8538</v>
+      </c>
+      <c r="CN5">
+        <v>0.85551999999999995</v>
+      </c>
+      <c r="CO5">
+        <v>0.86358999999999997</v>
+      </c>
+      <c r="CP5">
+        <v>0.83816000000000002</v>
+      </c>
+      <c r="CQ5">
+        <v>0.82977999999999996</v>
+      </c>
+      <c r="CR5">
+        <v>0.84404999999999997</v>
+      </c>
+      <c r="CS5">
+        <v>0.85141999999999995</v>
+      </c>
+      <c r="CT5">
+        <v>0.86736000000000002</v>
+      </c>
+      <c r="CU5">
+        <v>0.83850999999999998</v>
+      </c>
+      <c r="CV5">
+        <v>0.84009</v>
+      </c>
+      <c r="CW5">
+        <v>0.85407680000000041</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.85374000000000005</v>
+        <v>0.86285000000000001</v>
       </c>
       <c r="B6">
-        <v>0.84197999999999995</v>
+        <v>0.86197000000000001</v>
       </c>
       <c r="C6">
-        <v>0.84786000000000006</v>
+        <v>0.85938000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.83418000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.86751</v>
+      </c>
+      <c r="F6">
+        <v>0.88305999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.84858999999999996</v>
+      </c>
+      <c r="H6">
+        <v>0.86434999999999995</v>
+      </c>
+      <c r="I6">
+        <v>0.8639</v>
+      </c>
+      <c r="J6">
+        <v>0.85131000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.87417999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.83975999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.82582999999999995</v>
+      </c>
+      <c r="N6">
+        <v>0.86848999999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.86221999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.87112000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.85085999999999995</v>
+      </c>
+      <c r="R6">
+        <v>0.86612</v>
+      </c>
+      <c r="S6">
+        <v>0.86177000000000004</v>
+      </c>
+      <c r="T6">
+        <v>0.87597000000000003</v>
+      </c>
+      <c r="U6">
+        <v>0.87604000000000004</v>
+      </c>
+      <c r="V6">
+        <v>0.84941999999999995</v>
+      </c>
+      <c r="W6">
+        <v>0.87965000000000004</v>
+      </c>
+      <c r="X6">
+        <v>0.87158999999999998</v>
+      </c>
+      <c r="Y6">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="Z6">
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="AA6">
+        <v>0.85307999999999995</v>
+      </c>
+      <c r="AB6">
+        <v>0.84819</v>
+      </c>
+      <c r="AC6">
+        <v>0.85314999999999996</v>
+      </c>
+      <c r="AD6">
+        <v>0.86919000000000002</v>
+      </c>
+      <c r="AE6">
+        <v>0.85894999999999999</v>
+      </c>
+      <c r="AF6">
+        <v>0.85975000000000001</v>
+      </c>
+      <c r="AG6">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AH6">
+        <v>0.83218999999999999</v>
+      </c>
+      <c r="AI6">
+        <v>0.86085</v>
+      </c>
+      <c r="AJ6">
+        <v>0.84075999999999995</v>
+      </c>
+      <c r="AK6">
+        <v>0.85689000000000004</v>
+      </c>
+      <c r="AL6">
+        <v>0.86592000000000002</v>
+      </c>
+      <c r="AM6">
+        <v>0.85941000000000001</v>
+      </c>
+      <c r="AN6">
+        <v>0.84828000000000003</v>
+      </c>
+      <c r="AO6">
+        <v>0.84601999999999999</v>
+      </c>
+      <c r="AP6">
+        <v>0.84448000000000001</v>
+      </c>
+      <c r="AQ6">
+        <v>0.83628000000000002</v>
+      </c>
+      <c r="AR6">
+        <v>0.86162000000000005</v>
+      </c>
+      <c r="AS6">
+        <v>0.84216000000000002</v>
+      </c>
+      <c r="AT6">
+        <v>0.85365000000000002</v>
+      </c>
+      <c r="AU6">
+        <v>0.83026</v>
+      </c>
+      <c r="AV6">
+        <v>0.85689000000000004</v>
+      </c>
+      <c r="AW6">
+        <v>0.87909000000000004</v>
+      </c>
+      <c r="AX6">
+        <v>0.86812</v>
+      </c>
+      <c r="AY6">
+        <v>0.85787000000000002</v>
+      </c>
+      <c r="AZ6">
+        <v>0.86626999999999998</v>
+      </c>
+      <c r="BA6">
+        <v>0.85773999999999995</v>
+      </c>
+      <c r="BB6">
+        <v>0.85641999999999996</v>
+      </c>
+      <c r="BC6">
+        <v>0.86658000000000002</v>
+      </c>
+      <c r="BD6">
+        <v>0.85645000000000004</v>
+      </c>
+      <c r="BE6">
+        <v>0.83953999999999995</v>
+      </c>
+      <c r="BF6">
+        <v>0.86595</v>
+      </c>
+      <c r="BG6">
+        <v>0.85402</v>
+      </c>
+      <c r="BH6">
+        <v>0.87938000000000005</v>
+      </c>
+      <c r="BI6">
+        <v>0.84652000000000005</v>
+      </c>
+      <c r="BJ6">
+        <v>0.86643999999999999</v>
+      </c>
+      <c r="BK6">
+        <v>0.84280999999999995</v>
+      </c>
+      <c r="BL6">
+        <v>0.83496999999999999</v>
+      </c>
+      <c r="BM6">
+        <v>0.86989000000000005</v>
+      </c>
+      <c r="BN6">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="BO6">
+        <v>0.85672000000000004</v>
+      </c>
+      <c r="BP6">
+        <v>0.82482</v>
+      </c>
+      <c r="BQ6">
+        <v>0.86458999999999997</v>
+      </c>
+      <c r="BR6">
+        <v>0.85611000000000004</v>
+      </c>
+      <c r="BS6">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="BT6">
+        <v>0.88090999999999997</v>
+      </c>
+      <c r="BU6">
+        <v>0.84384999999999999</v>
+      </c>
+      <c r="BV6">
+        <v>0.85858999999999996</v>
+      </c>
+      <c r="BW6">
+        <v>0.87722</v>
+      </c>
+      <c r="BX6">
+        <v>0.86155999999999999</v>
+      </c>
+      <c r="BY6">
+        <v>0.84697</v>
+      </c>
+      <c r="BZ6">
+        <v>0.87343999999999999</v>
+      </c>
+      <c r="CA6">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="CB6">
+        <v>0.86965999999999999</v>
+      </c>
+      <c r="CC6">
+        <v>0.85897999999999997</v>
+      </c>
+      <c r="CD6">
+        <v>0.85384000000000004</v>
+      </c>
+      <c r="CE6">
+        <v>0.85594999999999999</v>
+      </c>
+      <c r="CF6">
+        <v>0.82577999999999996</v>
+      </c>
+      <c r="CG6">
+        <v>0.85277999999999998</v>
+      </c>
+      <c r="CH6">
+        <v>0.84177999999999997</v>
+      </c>
+      <c r="CI6">
+        <v>0.87105999999999995</v>
+      </c>
+      <c r="CJ6">
+        <v>0.84214999999999995</v>
+      </c>
+      <c r="CK6">
+        <v>0.82908999999999999</v>
+      </c>
+      <c r="CL6">
+        <v>0.85853999999999997</v>
+      </c>
+      <c r="CM6">
+        <v>0.88673000000000002</v>
+      </c>
+      <c r="CN6">
+        <v>0.86126000000000003</v>
+      </c>
+      <c r="CO6">
+        <v>0.86795999999999995</v>
+      </c>
+      <c r="CP6">
+        <v>0.85772000000000004</v>
+      </c>
+      <c r="CQ6">
+        <v>0.87356</v>
+      </c>
+      <c r="CR6">
+        <v>0.88305</v>
+      </c>
+      <c r="CS6">
+        <v>0.83443999999999996</v>
+      </c>
+      <c r="CT6">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="CU6">
+        <v>0.85585999999999995</v>
+      </c>
+      <c r="CV6">
+        <v>0.84569000000000005</v>
+      </c>
+      <c r="CW6">
+        <v>0.8573135999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.83462000000000003</v>
+        <v>0.84004999999999996</v>
       </c>
       <c r="B7">
-        <v>0.86377000000000004</v>
+        <v>0.86694000000000004</v>
       </c>
       <c r="C7">
-        <v>0.84919500000000003</v>
+        <v>0.84926000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.86016000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.87146000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.84416999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.88532999999999995</v>
+      </c>
+      <c r="H7">
+        <v>0.85111000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.84482999999999997</v>
+      </c>
+      <c r="J7">
+        <v>0.84665999999999997</v>
+      </c>
+      <c r="K7">
+        <v>0.82735999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.87648999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.83957000000000004</v>
+      </c>
+      <c r="N7">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="O7">
+        <v>0.86589000000000005</v>
+      </c>
+      <c r="P7">
+        <v>0.85926000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>0.83238000000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.86506000000000005</v>
+      </c>
+      <c r="S7">
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="T7">
+        <v>0.84628000000000003</v>
+      </c>
+      <c r="U7">
+        <v>0.83474999999999999</v>
+      </c>
+      <c r="V7">
+        <v>0.85097</v>
+      </c>
+      <c r="W7">
+        <v>0.85390999999999995</v>
+      </c>
+      <c r="X7">
+        <v>0.86246</v>
+      </c>
+      <c r="Y7">
+        <v>0.83496999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>0.85684000000000005</v>
+      </c>
+      <c r="AA7">
+        <v>0.82448999999999995</v>
+      </c>
+      <c r="AB7">
+        <v>0.86248000000000002</v>
+      </c>
+      <c r="AC7">
+        <v>0.84431</v>
+      </c>
+      <c r="AD7">
+        <v>0.86531000000000002</v>
+      </c>
+      <c r="AE7">
+        <v>0.88107000000000002</v>
+      </c>
+      <c r="AF7">
+        <v>0.84792999999999996</v>
+      </c>
+      <c r="AG7">
+        <v>0.83238000000000001</v>
+      </c>
+      <c r="AH7">
+        <v>0.86212</v>
+      </c>
+      <c r="AI7">
+        <v>0.85299000000000003</v>
+      </c>
+      <c r="AJ7">
+        <v>0.87336999999999998</v>
+      </c>
+      <c r="AK7">
+        <v>0.87114999999999998</v>
+      </c>
+      <c r="AL7">
+        <v>0.85675999999999997</v>
+      </c>
+      <c r="AM7">
+        <v>0.84619</v>
+      </c>
+      <c r="AN7">
+        <v>0.83994999999999997</v>
+      </c>
+      <c r="AO7">
+        <v>0.85321999999999998</v>
+      </c>
+      <c r="AP7">
+        <v>0.85496000000000005</v>
+      </c>
+      <c r="AQ7">
+        <v>0.84409000000000001</v>
+      </c>
+      <c r="AR7">
+        <v>0.83911000000000002</v>
+      </c>
+      <c r="AS7">
+        <v>0.85941999999999996</v>
+      </c>
+      <c r="AT7">
+        <v>0.83867000000000003</v>
+      </c>
+      <c r="AU7">
+        <v>0.86031999999999997</v>
+      </c>
+      <c r="AV7">
+        <v>0.85704999999999998</v>
+      </c>
+      <c r="AW7">
+        <v>0.84011000000000002</v>
+      </c>
+      <c r="AX7">
+        <v>0.86021999999999998</v>
+      </c>
+      <c r="AY7">
+        <v>0.85211999999999999</v>
+      </c>
+      <c r="AZ7">
+        <v>0.87248000000000003</v>
+      </c>
+      <c r="BA7">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="BB7">
+        <v>0.86565000000000003</v>
+      </c>
+      <c r="BC7">
+        <v>0.86585999999999996</v>
+      </c>
+      <c r="BD7">
+        <v>0.84333999999999998</v>
+      </c>
+      <c r="BE7">
+        <v>0.83352999999999999</v>
+      </c>
+      <c r="BF7">
+        <v>0.83855000000000002</v>
+      </c>
+      <c r="BG7">
+        <v>0.84157999999999999</v>
+      </c>
+      <c r="BH7">
+        <v>0.83394000000000001</v>
+      </c>
+      <c r="BI7">
+        <v>0.84992999999999996</v>
+      </c>
+      <c r="BJ7">
+        <v>0.84448999999999996</v>
+      </c>
+      <c r="BK7">
+        <v>0.86182000000000003</v>
+      </c>
+      <c r="BL7">
+        <v>0.84811000000000003</v>
+      </c>
+      <c r="BM7">
+        <v>0.85043999999999997</v>
+      </c>
+      <c r="BN7">
+        <v>0.85448999999999997</v>
+      </c>
+      <c r="BO7">
+        <v>0.84141999999999995</v>
+      </c>
+      <c r="BP7">
+        <v>0.83230999999999999</v>
+      </c>
+      <c r="BQ7">
+        <v>0.84772999999999998</v>
+      </c>
+      <c r="BR7">
+        <v>0.88021000000000005</v>
+      </c>
+      <c r="BS7">
+        <v>0.87005999999999994</v>
+      </c>
+      <c r="BT7">
+        <v>0.85831000000000002</v>
+      </c>
+      <c r="BU7">
+        <v>0.82204999999999995</v>
+      </c>
+      <c r="BV7">
+        <v>0.86456999999999995</v>
+      </c>
+      <c r="BW7">
+        <v>0.84582000000000002</v>
+      </c>
+      <c r="BX7">
+        <v>0.83489000000000002</v>
+      </c>
+      <c r="BY7">
+        <v>0.86143000000000003</v>
+      </c>
+      <c r="BZ7">
+        <v>0.85684000000000005</v>
+      </c>
+      <c r="CA7">
+        <v>0.84914999999999996</v>
+      </c>
+      <c r="CB7">
+        <v>0.87336999999999998</v>
+      </c>
+      <c r="CC7">
+        <v>0.81962000000000002</v>
+      </c>
+      <c r="CD7">
+        <v>0.86156999999999995</v>
+      </c>
+      <c r="CE7">
+        <v>0.85294999999999999</v>
+      </c>
+      <c r="CF7">
+        <v>0.84287000000000001</v>
+      </c>
+      <c r="CG7">
+        <v>0.87261999999999995</v>
+      </c>
+      <c r="CH7">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="CI7">
+        <v>0.87999000000000005</v>
+      </c>
+      <c r="CJ7">
+        <v>0.83513999999999999</v>
+      </c>
+      <c r="CK7">
+        <v>0.85872000000000004</v>
+      </c>
+      <c r="CL7">
+        <v>0.87763999999999998</v>
+      </c>
+      <c r="CM7">
+        <v>0.84382000000000001</v>
+      </c>
+      <c r="CN7">
+        <v>0.86677999999999999</v>
+      </c>
+      <c r="CO7">
+        <v>0.84552000000000005</v>
+      </c>
+      <c r="CP7">
+        <v>0.86716000000000004</v>
+      </c>
+      <c r="CQ7">
+        <v>0.82574000000000003</v>
+      </c>
+      <c r="CR7">
+        <v>0.85213000000000005</v>
+      </c>
+      <c r="CS7">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="CT7">
+        <v>0.85841000000000001</v>
+      </c>
+      <c r="CU7">
+        <v>0.83979000000000004</v>
+      </c>
+      <c r="CV7">
+        <v>0.84716000000000002</v>
+      </c>
+      <c r="CW7">
+        <v>0.85247950000000017</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.85079000000000005</v>
+        <v>0.84848000000000001</v>
       </c>
       <c r="B8">
-        <v>0.84562000000000004</v>
+        <v>0.83770999999999995</v>
       </c>
       <c r="C8">
-        <v>0.8482050000000001</v>
+        <v>0.8417</v>
+      </c>
+      <c r="D8">
+        <v>0.85843000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.86983999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.82798000000000005</v>
+      </c>
+      <c r="H8">
+        <v>0.85370999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.83986000000000005</v>
+      </c>
+      <c r="J8">
+        <v>0.85143000000000002</v>
+      </c>
+      <c r="K8">
+        <v>0.84441999999999995</v>
+      </c>
+      <c r="L8">
+        <v>0.84679000000000004</v>
+      </c>
+      <c r="M8">
+        <v>0.84275999999999995</v>
+      </c>
+      <c r="N8">
+        <v>0.84225000000000005</v>
+      </c>
+      <c r="O8">
+        <v>0.84275999999999995</v>
+      </c>
+      <c r="P8">
+        <v>0.83853</v>
+      </c>
+      <c r="Q8">
+        <v>0.85528000000000004</v>
+      </c>
+      <c r="R8">
+        <v>0.82760999999999996</v>
+      </c>
+      <c r="S8">
+        <v>0.82118999999999998</v>
+      </c>
+      <c r="T8">
+        <v>0.83248999999999995</v>
+      </c>
+      <c r="U8">
+        <v>0.84716000000000002</v>
+      </c>
+      <c r="V8">
+        <v>0.86148999999999998</v>
+      </c>
+      <c r="W8">
+        <v>0.86968999999999996</v>
+      </c>
+      <c r="X8">
+        <v>0.83133999999999997</v>
+      </c>
+      <c r="Y8">
+        <v>0.86524000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>0.83350000000000002</v>
+      </c>
+      <c r="AA8">
+        <v>0.82525000000000004</v>
+      </c>
+      <c r="AB8">
+        <v>0.84958999999999996</v>
+      </c>
+      <c r="AC8">
+        <v>0.84548999999999996</v>
+      </c>
+      <c r="AD8">
+        <v>0.84384999999999999</v>
+      </c>
+      <c r="AE8">
+        <v>0.86680999999999997</v>
+      </c>
+      <c r="AF8">
+        <v>0.85123000000000004</v>
+      </c>
+      <c r="AG8">
+        <v>0.82193000000000005</v>
+      </c>
+      <c r="AH8">
+        <v>0.82289999999999996</v>
+      </c>
+      <c r="AI8">
+        <v>0.85494999999999999</v>
+      </c>
+      <c r="AJ8">
+        <v>0.85345000000000004</v>
+      </c>
+      <c r="AK8">
+        <v>0.84133000000000002</v>
+      </c>
+      <c r="AL8">
+        <v>0.84699000000000002</v>
+      </c>
+      <c r="AM8">
+        <v>0.84462999999999999</v>
+      </c>
+      <c r="AN8">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="AO8">
+        <v>0.86046</v>
+      </c>
+      <c r="AP8">
+        <v>0.86707999999999996</v>
+      </c>
+      <c r="AQ8">
+        <v>0.83223999999999998</v>
+      </c>
+      <c r="AR8">
+        <v>0.85074000000000005</v>
+      </c>
+      <c r="AS8">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="AT8">
+        <v>0.86770999999999998</v>
+      </c>
+      <c r="AU8">
+        <v>0.87044999999999995</v>
+      </c>
+      <c r="AV8">
+        <v>0.84616999999999998</v>
+      </c>
+      <c r="AW8">
+        <v>0.84282000000000001</v>
+      </c>
+      <c r="AX8">
+        <v>0.84706999999999999</v>
+      </c>
+      <c r="AY8">
+        <v>0.86441000000000001</v>
+      </c>
+      <c r="AZ8">
+        <v>0.83011000000000001</v>
+      </c>
+      <c r="BA8">
+        <v>0.8478</v>
+      </c>
+      <c r="BB8">
+        <v>0.85685999999999996</v>
+      </c>
+      <c r="BC8">
+        <v>0.83982999999999997</v>
+      </c>
+      <c r="BD8">
+        <v>0.85357000000000005</v>
+      </c>
+      <c r="BE8">
+        <v>0.81466000000000005</v>
+      </c>
+      <c r="BF8">
+        <v>0.85192999999999997</v>
+      </c>
+      <c r="BG8">
+        <v>0.84218999999999999</v>
+      </c>
+      <c r="BH8">
+        <v>0.84133999999999998</v>
+      </c>
+      <c r="BI8">
+        <v>0.85026999999999997</v>
+      </c>
+      <c r="BJ8">
+        <v>0.84945999999999999</v>
+      </c>
+      <c r="BK8">
+        <v>0.86145000000000005</v>
+      </c>
+      <c r="BL8">
+        <v>0.83708000000000005</v>
+      </c>
+      <c r="BM8">
+        <v>0.84775</v>
+      </c>
+      <c r="BN8">
+        <v>0.81991999999999998</v>
+      </c>
+      <c r="BO8">
+        <v>0.8387</v>
+      </c>
+      <c r="BP8">
+        <v>0.84467000000000003</v>
+      </c>
+      <c r="BQ8">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="BR8">
+        <v>0.85853000000000002</v>
+      </c>
+      <c r="BS8">
+        <v>0.83030999999999999</v>
+      </c>
+      <c r="BT8">
+        <v>0.85258999999999996</v>
+      </c>
+      <c r="BU8">
+        <v>0.85407999999999995</v>
+      </c>
+      <c r="BV8">
+        <v>0.84992000000000001</v>
+      </c>
+      <c r="BW8">
+        <v>0.86243999999999998</v>
+      </c>
+      <c r="BX8">
+        <v>0.84145000000000003</v>
+      </c>
+      <c r="BY8">
+        <v>0.85895999999999995</v>
+      </c>
+      <c r="BZ8">
+        <v>0.88138000000000005</v>
+      </c>
+      <c r="CA8">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="CB8">
+        <v>0.82726999999999995</v>
+      </c>
+      <c r="CC8">
+        <v>0.85553000000000001</v>
+      </c>
+      <c r="CD8">
+        <v>0.85955999999999999</v>
+      </c>
+      <c r="CE8">
+        <v>0.84236999999999995</v>
+      </c>
+      <c r="CF8">
+        <v>0.85614000000000001</v>
+      </c>
+      <c r="CG8">
+        <v>0.83779000000000003</v>
+      </c>
+      <c r="CH8">
+        <v>0.86068</v>
+      </c>
+      <c r="CI8">
+        <v>0.81479000000000001</v>
+      </c>
+      <c r="CJ8">
+        <v>0.86795999999999995</v>
+      </c>
+      <c r="CK8">
+        <v>0.84028000000000003</v>
+      </c>
+      <c r="CL8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="CM8">
+        <v>0.86217999999999995</v>
+      </c>
+      <c r="CN8">
+        <v>0.84147000000000005</v>
+      </c>
+      <c r="CO8">
+        <v>0.87461999999999995</v>
+      </c>
+      <c r="CP8">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="CQ8">
+        <v>0.84679000000000004</v>
+      </c>
+      <c r="CR8">
+        <v>0.85263999999999995</v>
+      </c>
+      <c r="CS8">
+        <v>0.84894000000000003</v>
+      </c>
+      <c r="CT8">
+        <v>0.8498</v>
+      </c>
+      <c r="CU8">
+        <v>0.85155999999999998</v>
+      </c>
+      <c r="CV8">
+        <v>0.85033000000000003</v>
+      </c>
+      <c r="CW8">
+        <v>0.8475954</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.83940000000000003</v>
+        <v>0.87034999999999996</v>
       </c>
       <c r="B9">
-        <v>0.85841000000000001</v>
+        <v>0.85951</v>
       </c>
       <c r="C9">
-        <v>0.84890500000000002</v>
+        <v>0.85580999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.84914000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.83923999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.84162000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.83723000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.82940999999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.88322000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.84025000000000005</v>
+      </c>
+      <c r="K9">
+        <v>0.85475000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.85562000000000005</v>
+      </c>
+      <c r="M9">
+        <v>0.83996000000000004</v>
+      </c>
+      <c r="N9">
+        <v>0.84350999999999998</v>
+      </c>
+      <c r="O9">
+        <v>0.85972999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.83028999999999997</v>
+      </c>
+      <c r="Q9">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.86297999999999997</v>
+      </c>
+      <c r="S9">
+        <v>0.83469000000000004</v>
+      </c>
+      <c r="T9">
+        <v>0.86182000000000003</v>
+      </c>
+      <c r="U9">
+        <v>0.84748999999999997</v>
+      </c>
+      <c r="V9">
+        <v>0.85043999999999997</v>
+      </c>
+      <c r="W9">
+        <v>0.87887000000000004</v>
+      </c>
+      <c r="X9">
+        <v>0.84950999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.8528</v>
+      </c>
+      <c r="Z9">
+        <v>0.83445999999999998</v>
+      </c>
+      <c r="AA9">
+        <v>0.86512999999999995</v>
+      </c>
+      <c r="AB9">
+        <v>0.86702000000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0.84877999999999998</v>
+      </c>
+      <c r="AD9">
+        <v>0.85382999999999998</v>
+      </c>
+      <c r="AE9">
+        <v>0.84616999999999998</v>
+      </c>
+      <c r="AF9">
+        <v>0.84645999999999999</v>
+      </c>
+      <c r="AG9">
+        <v>0.87407000000000001</v>
+      </c>
+      <c r="AH9">
+        <v>0.85365000000000002</v>
+      </c>
+      <c r="AI9">
+        <v>0.85721999999999998</v>
+      </c>
+      <c r="AJ9">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="AK9">
+        <v>0.84714999999999996</v>
+      </c>
+      <c r="AL9">
+        <v>0.85092999999999996</v>
+      </c>
+      <c r="AM9">
+        <v>0.84721000000000002</v>
+      </c>
+      <c r="AN9">
+        <v>0.84945000000000004</v>
+      </c>
+      <c r="AO9">
+        <v>0.86921999999999999</v>
+      </c>
+      <c r="AP9">
+        <v>0.84875999999999996</v>
+      </c>
+      <c r="AQ9">
+        <v>0.87441000000000002</v>
+      </c>
+      <c r="AR9">
+        <v>0.86106000000000005</v>
+      </c>
+      <c r="AS9">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="AT9">
+        <v>0.83916999999999997</v>
+      </c>
+      <c r="AU9">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="AV9">
+        <v>0.85468999999999995</v>
+      </c>
+      <c r="AW9">
+        <v>0.84114999999999995</v>
+      </c>
+      <c r="AX9">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="AY9">
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="AZ9">
+        <v>0.84796000000000005</v>
+      </c>
+      <c r="BA9">
+        <v>0.84006000000000003</v>
+      </c>
+      <c r="BB9">
+        <v>0.85911999999999999</v>
+      </c>
+      <c r="BC9">
+        <v>0.86860999999999999</v>
+      </c>
+      <c r="BD9">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="BE9">
+        <v>0.86451</v>
+      </c>
+      <c r="BF9">
+        <v>0.86846000000000001</v>
+      </c>
+      <c r="BG9">
+        <v>0.83731</v>
+      </c>
+      <c r="BH9">
+        <v>0.86712999999999996</v>
+      </c>
+      <c r="BI9">
+        <v>0.85363999999999995</v>
+      </c>
+      <c r="BJ9">
+        <v>0.86990999999999996</v>
+      </c>
+      <c r="BK9">
+        <v>0.86524999999999996</v>
+      </c>
+      <c r="BL9">
+        <v>0.85528999999999999</v>
+      </c>
+      <c r="BM9">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="BN9">
+        <v>0.84672000000000003</v>
+      </c>
+      <c r="BO9">
+        <v>0.84772000000000003</v>
+      </c>
+      <c r="BP9">
+        <v>0.85009000000000001</v>
+      </c>
+      <c r="BQ9">
+        <v>0.83272999999999997</v>
+      </c>
+      <c r="BR9">
+        <v>0.83548999999999995</v>
+      </c>
+      <c r="BS9">
+        <v>0.83533999999999997</v>
+      </c>
+      <c r="BT9">
+        <v>0.84231999999999996</v>
+      </c>
+      <c r="BU9">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="BV9">
+        <v>0.86646999999999996</v>
+      </c>
+      <c r="BW9">
+        <v>0.84799000000000002</v>
+      </c>
+      <c r="BX9">
+        <v>0.86921999999999999</v>
+      </c>
+      <c r="BY9">
+        <v>0.82972000000000001</v>
+      </c>
+      <c r="BZ9">
+        <v>0.85111999999999999</v>
+      </c>
+      <c r="CA9">
+        <v>0.86029</v>
+      </c>
+      <c r="CB9">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="CC9">
+        <v>0.82264999999999999</v>
+      </c>
+      <c r="CD9">
+        <v>0.83345999999999998</v>
+      </c>
+      <c r="CE9">
+        <v>0.87575000000000003</v>
+      </c>
+      <c r="CF9">
+        <v>0.83735000000000004</v>
+      </c>
+      <c r="CG9">
+        <v>0.84140999999999999</v>
+      </c>
+      <c r="CH9">
+        <v>0.84433000000000002</v>
+      </c>
+      <c r="CI9">
+        <v>0.84165999999999996</v>
+      </c>
+      <c r="CJ9">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="CK9">
+        <v>0.84597</v>
+      </c>
+      <c r="CL9">
+        <v>0.83504999999999996</v>
+      </c>
+      <c r="CM9">
+        <v>0.84470999999999996</v>
+      </c>
+      <c r="CN9">
+        <v>0.87443000000000004</v>
+      </c>
+      <c r="CO9">
+        <v>0.85665999999999998</v>
+      </c>
+      <c r="CP9">
+        <v>0.84480999999999995</v>
+      </c>
+      <c r="CQ9">
+        <v>0.83972000000000002</v>
+      </c>
+      <c r="CR9">
+        <v>0.84557000000000004</v>
+      </c>
+      <c r="CS9">
+        <v>0.84635000000000005</v>
+      </c>
+      <c r="CT9">
+        <v>0.86106000000000005</v>
+      </c>
+      <c r="CU9">
+        <v>0.8377</v>
+      </c>
+      <c r="CV9">
+        <v>0.82616000000000001</v>
+      </c>
+      <c r="CW9">
+        <v>0.85073999999999961</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.82511999999999996</v>
+        <v>0.85809999999999997</v>
       </c>
       <c r="B10">
-        <v>0.83681000000000005</v>
+        <v>0.85970999999999997</v>
       </c>
       <c r="C10">
-        <v>0.83096499999999995</v>
+        <v>0.85484000000000004</v>
+      </c>
+      <c r="D10">
+        <v>0.84784999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.84516000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.87121999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.83652000000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.87578</v>
+      </c>
+      <c r="J10">
+        <v>0.84418000000000004</v>
+      </c>
+      <c r="K10">
+        <v>0.86453000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0.84028000000000003</v>
+      </c>
+      <c r="M10">
+        <v>0.84116999999999997</v>
+      </c>
+      <c r="N10">
+        <v>0.82286999999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.85643000000000002</v>
+      </c>
+      <c r="P10">
+        <v>0.84738999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="R10">
+        <v>0.84028000000000003</v>
+      </c>
+      <c r="S10">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="T10">
+        <v>0.82264000000000004</v>
+      </c>
+      <c r="U10">
+        <v>0.84511999999999998</v>
+      </c>
+      <c r="V10">
+        <v>0.80933999999999995</v>
+      </c>
+      <c r="W10">
+        <v>0.83684000000000003</v>
+      </c>
+      <c r="X10">
+        <v>0.84604000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.86648999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>0.84984000000000004</v>
+      </c>
+      <c r="AA10">
+        <v>0.83169000000000004</v>
+      </c>
+      <c r="AB10">
+        <v>0.84765999999999997</v>
+      </c>
+      <c r="AC10">
+        <v>0.85833000000000004</v>
+      </c>
+      <c r="AD10">
+        <v>0.84243999999999997</v>
+      </c>
+      <c r="AE10">
+        <v>0.84582999999999997</v>
+      </c>
+      <c r="AF10">
+        <v>0.85228999999999999</v>
+      </c>
+      <c r="AG10">
+        <v>0.86519000000000001</v>
+      </c>
+      <c r="AH10">
+        <v>0.84914999999999996</v>
+      </c>
+      <c r="AI10">
+        <v>0.86319000000000001</v>
+      </c>
+      <c r="AJ10">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="AK10">
+        <v>0.84157000000000004</v>
+      </c>
+      <c r="AL10">
+        <v>0.84463999999999995</v>
+      </c>
+      <c r="AM10">
+        <v>0.81064999999999998</v>
+      </c>
+      <c r="AN10">
+        <v>0.84079000000000004</v>
+      </c>
+      <c r="AO10">
+        <v>0.86275000000000002</v>
+      </c>
+      <c r="AP10">
+        <v>0.80508999999999997</v>
+      </c>
+      <c r="AQ10">
+        <v>0.84636999999999996</v>
+      </c>
+      <c r="AR10">
+        <v>0.84628999999999999</v>
+      </c>
+      <c r="AS10">
+        <v>0.83616000000000001</v>
+      </c>
+      <c r="AT10">
+        <v>0.83835999999999999</v>
+      </c>
+      <c r="AU10">
+        <v>0.86219000000000001</v>
+      </c>
+      <c r="AV10">
+        <v>0.84279000000000004</v>
+      </c>
+      <c r="AW10">
+        <v>0.84936999999999996</v>
+      </c>
+      <c r="AX10">
+        <v>0.84675999999999996</v>
+      </c>
+      <c r="AY10">
+        <v>0.82984000000000002</v>
+      </c>
+      <c r="AZ10">
+        <v>0.83536999999999995</v>
+      </c>
+      <c r="BA10">
+        <v>0.83857000000000004</v>
+      </c>
+      <c r="BB10">
+        <v>0.86072000000000004</v>
+      </c>
+      <c r="BC10">
+        <v>0.87063999999999997</v>
+      </c>
+      <c r="BD10">
+        <v>0.84277999999999997</v>
+      </c>
+      <c r="BE10">
+        <v>0.84933000000000003</v>
+      </c>
+      <c r="BF10">
+        <v>0.82662000000000002</v>
+      </c>
+      <c r="BG10">
+        <v>0.84272000000000002</v>
+      </c>
+      <c r="BH10">
+        <v>0.84780999999999995</v>
+      </c>
+      <c r="BI10">
+        <v>0.86655000000000004</v>
+      </c>
+      <c r="BJ10">
+        <v>0.83433000000000002</v>
+      </c>
+      <c r="BK10">
+        <v>0.85667000000000004</v>
+      </c>
+      <c r="BL10">
+        <v>0.81447999999999998</v>
+      </c>
+      <c r="BM10">
+        <v>0.85177000000000003</v>
+      </c>
+      <c r="BN10">
+        <v>0.86892999999999998</v>
+      </c>
+      <c r="BO10">
+        <v>0.83494999999999997</v>
+      </c>
+      <c r="BP10">
+        <v>0.84045999999999998</v>
+      </c>
+      <c r="BQ10">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="BR10">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="BS10">
+        <v>0.87112000000000001</v>
+      </c>
+      <c r="BT10">
+        <v>0.83279999999999998</v>
+      </c>
+      <c r="BU10">
+        <v>0.82203999999999999</v>
+      </c>
+      <c r="BV10">
+        <v>0.84845999999999999</v>
+      </c>
+      <c r="BW10">
+        <v>0.83804000000000001</v>
+      </c>
+      <c r="BX10">
+        <v>0.86956999999999995</v>
+      </c>
+      <c r="BY10">
+        <v>0.85487000000000002</v>
+      </c>
+      <c r="BZ10">
+        <v>0.85772000000000004</v>
+      </c>
+      <c r="CA10">
+        <v>0.83259000000000005</v>
+      </c>
+      <c r="CB10">
+        <v>0.84675</v>
+      </c>
+      <c r="CC10">
+        <v>0.86717</v>
+      </c>
+      <c r="CD10">
+        <v>0.85789000000000004</v>
+      </c>
+      <c r="CE10">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="CF10">
+        <v>0.81684000000000001</v>
+      </c>
+      <c r="CG10">
+        <v>0.86912999999999996</v>
+      </c>
+      <c r="CH10">
+        <v>0.86156999999999995</v>
+      </c>
+      <c r="CI10">
+        <v>0.80710999999999999</v>
+      </c>
+      <c r="CJ10">
+        <v>0.85884000000000005</v>
+      </c>
+      <c r="CK10">
+        <v>0.84960000000000002</v>
+      </c>
+      <c r="CL10">
+        <v>0.85641999999999996</v>
+      </c>
+      <c r="CM10">
+        <v>0.87592000000000003</v>
+      </c>
+      <c r="CN10">
+        <v>0.84823000000000004</v>
+      </c>
+      <c r="CO10">
+        <v>0.86409000000000002</v>
+      </c>
+      <c r="CP10">
+        <v>0.84058999999999995</v>
+      </c>
+      <c r="CQ10">
+        <v>0.86087000000000002</v>
+      </c>
+      <c r="CR10">
+        <v>0.83818999999999999</v>
+      </c>
+      <c r="CS10">
+        <v>0.86187000000000002</v>
+      </c>
+      <c r="CT10">
+        <v>0.83940999999999999</v>
+      </c>
+      <c r="CU10">
+        <v>0.85214999999999996</v>
+      </c>
+      <c r="CV10">
+        <v>0.87519000000000002</v>
+      </c>
+      <c r="CW10">
+        <v>0.84734549999999986</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.86778</v>
+        <v>0.85131999999999997</v>
       </c>
       <c r="B11">
-        <v>0.83814999999999995</v>
+        <v>0.86541999999999997</v>
       </c>
       <c r="C11">
-        <v>0.85296499999999997</v>
+        <v>0.85192999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.86165999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.83082999999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.84316999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.86843999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.84269000000000005</v>
+      </c>
+      <c r="I11">
+        <v>0.85350999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="M11">
+        <v>0.83875</v>
+      </c>
+      <c r="N11">
+        <v>0.83840999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.84857000000000005</v>
+      </c>
+      <c r="P11">
+        <v>0.86511000000000005</v>
+      </c>
+      <c r="Q11">
+        <v>0.84365000000000001</v>
+      </c>
+      <c r="R11">
+        <v>0.85675999999999997</v>
+      </c>
+      <c r="S11">
+        <v>0.83658999999999994</v>
+      </c>
+      <c r="T11">
+        <v>0.85502999999999996</v>
+      </c>
+      <c r="U11">
+        <v>0.86372000000000004</v>
+      </c>
+      <c r="V11">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="W11">
+        <v>0.81796000000000002</v>
+      </c>
+      <c r="X11">
+        <v>0.82935000000000003</v>
+      </c>
+      <c r="Y11">
+        <v>0.86151</v>
+      </c>
+      <c r="Z11">
+        <v>0.86338000000000004</v>
+      </c>
+      <c r="AA11">
+        <v>0.84884000000000004</v>
+      </c>
+      <c r="AB11">
+        <v>0.84624999999999995</v>
+      </c>
+      <c r="AC11">
+        <v>0.84616999999999998</v>
+      </c>
+      <c r="AD11">
+        <v>0.84070999999999996</v>
+      </c>
+      <c r="AE11">
+        <v>0.85450999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>0.83492999999999995</v>
+      </c>
+      <c r="AG11">
+        <v>0.82718000000000003</v>
+      </c>
+      <c r="AH11">
+        <v>0.84140999999999999</v>
+      </c>
+      <c r="AI11">
+        <v>0.82772000000000001</v>
+      </c>
+      <c r="AJ11">
+        <v>0.82194999999999996</v>
+      </c>
+      <c r="AK11">
+        <v>0.84319</v>
+      </c>
+      <c r="AL11">
+        <v>0.84648999999999996</v>
+      </c>
+      <c r="AM11">
+        <v>0.83667000000000002</v>
+      </c>
+      <c r="AN11">
+        <v>0.82335000000000003</v>
+      </c>
+      <c r="AO11">
+        <v>0.82528000000000001</v>
+      </c>
+      <c r="AP11">
+        <v>0.83314999999999995</v>
+      </c>
+      <c r="AQ11">
+        <v>0.82965999999999995</v>
+      </c>
+      <c r="AR11">
+        <v>0.86526000000000003</v>
+      </c>
+      <c r="AS11">
+        <v>0.81294999999999995</v>
+      </c>
+      <c r="AT11">
+        <v>0.85077999999999998</v>
+      </c>
+      <c r="AU11">
+        <v>0.86465999999999998</v>
+      </c>
+      <c r="AV11">
+        <v>0.87217</v>
+      </c>
+      <c r="AW11">
+        <v>0.85075999999999996</v>
+      </c>
+      <c r="AX11">
+        <v>0.83613999999999999</v>
+      </c>
+      <c r="AY11">
+        <v>0.83948</v>
+      </c>
+      <c r="AZ11">
+        <v>0.88122</v>
+      </c>
+      <c r="BA11">
+        <v>0.83435999999999999</v>
+      </c>
+      <c r="BB11">
+        <v>0.84419</v>
+      </c>
+      <c r="BC11">
+        <v>0.85087999999999997</v>
+      </c>
+      <c r="BD11">
+        <v>0.83369000000000004</v>
+      </c>
+      <c r="BE11">
+        <v>0.85448000000000002</v>
+      </c>
+      <c r="BF11">
+        <v>0.85772999999999999</v>
+      </c>
+      <c r="BG11">
+        <v>0.84287000000000001</v>
+      </c>
+      <c r="BH11">
+        <v>0.83577000000000001</v>
+      </c>
+      <c r="BI11">
+        <v>0.84491000000000005</v>
+      </c>
+      <c r="BJ11">
+        <v>0.84709000000000001</v>
+      </c>
+      <c r="BK11">
+        <v>0.83472999999999997</v>
+      </c>
+      <c r="BL11">
+        <v>0.85787000000000002</v>
+      </c>
+      <c r="BM11">
+        <v>0.85631000000000002</v>
+      </c>
+      <c r="BN11">
+        <v>0.83725000000000005</v>
+      </c>
+      <c r="BO11">
+        <v>0.84333000000000002</v>
+      </c>
+      <c r="BP11">
+        <v>0.83357999999999999</v>
+      </c>
+      <c r="BQ11">
+        <v>0.82669000000000004</v>
+      </c>
+      <c r="BR11">
+        <v>0.83596000000000004</v>
+      </c>
+      <c r="BS11">
+        <v>0.85072000000000003</v>
+      </c>
+      <c r="BT11">
+        <v>0.82525999999999999</v>
+      </c>
+      <c r="BU11">
+        <v>0.83209999999999995</v>
+      </c>
+      <c r="BV11">
+        <v>0.87134</v>
+      </c>
+      <c r="BW11">
+        <v>0.83989000000000003</v>
+      </c>
+      <c r="BX11">
+        <v>0.85936000000000001</v>
+      </c>
+      <c r="BY11">
+        <v>0.85412999999999994</v>
+      </c>
+      <c r="BZ11">
+        <v>0.83174999999999999</v>
+      </c>
+      <c r="CA11">
+        <v>0.85543999999999998</v>
+      </c>
+      <c r="CB11">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="CC11">
+        <v>0.82765</v>
+      </c>
+      <c r="CD11">
+        <v>0.85104999999999997</v>
+      </c>
+      <c r="CE11">
+        <v>0.83831999999999995</v>
+      </c>
+      <c r="CF11">
+        <v>0.85984000000000005</v>
+      </c>
+      <c r="CG11">
+        <v>0.84211000000000003</v>
+      </c>
+      <c r="CH11">
+        <v>0.83335999999999999</v>
+      </c>
+      <c r="CI11">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="CJ11">
+        <v>0.83982000000000001</v>
+      </c>
+      <c r="CK11">
+        <v>0.86536000000000002</v>
+      </c>
+      <c r="CL11">
+        <v>0.87234</v>
+      </c>
+      <c r="CM11">
+        <v>0.85863</v>
+      </c>
+      <c r="CN11">
+        <v>0.85314000000000001</v>
+      </c>
+      <c r="CO11">
+        <v>0.86404000000000003</v>
+      </c>
+      <c r="CP11">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="CQ11">
+        <v>0.84997999999999996</v>
+      </c>
+      <c r="CR11">
+        <v>0.87683999999999995</v>
+      </c>
+      <c r="CS11">
+        <v>0.85470999999999997</v>
+      </c>
+      <c r="CT11">
+        <v>0.87795000000000001</v>
+      </c>
+      <c r="CU11">
+        <v>0.86441000000000001</v>
+      </c>
+      <c r="CV11">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="CW11">
+        <v>0.84701369999999987</v>
       </c>
     </row>
   </sheetData>
